--- a/Digital twin energy system/_costs.xlsx
+++ b/Digital twin energy system/_costs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Zero-energy-system-builder\Digital twin energy system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1104C21D-335D-4FA2-9C10-087F890A0E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFE81E4-0C23-4007-91F8-7221806572FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="552" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{0DC09E48-9579-49E6-AA56-8FECFF415513}"/>
+    <workbookView xWindow="-23148" yWindow="552" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0DC09E48-9579-49E6-AA56-8FECFF415513}"/>
   </bookViews>
   <sheets>
     <sheet name="energy_costs" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="118">
   <si>
     <t>Jaar</t>
   </si>
@@ -442,6 +442,15 @@
   </si>
   <si>
     <t>primary heat source (low)</t>
+  </si>
+  <si>
+    <t>Isolation</t>
+  </si>
+  <si>
+    <t>See energievraag en isolatie woningen</t>
+  </si>
+  <si>
+    <t>Natural gas boiler</t>
   </si>
 </sst>
 </file>
@@ -511,7 +520,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -522,6 +531,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="2" builtinId="3"/>
@@ -2846,10 +2856,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF6D1B4-07BD-4D49-9C71-3B95918C3305}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2967,7 +2977,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
@@ -3128,6 +3138,32 @@
       </c>
       <c r="I11" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="10">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3140,7 +3176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0F771A-2E3D-45CD-A95A-9E5395863168}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
